--- a/proj2.xlsx
+++ b/proj2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,35 +424,65 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>樹上</t>
+          <t>買</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>還</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>剩下</t>
+          <t>包</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>幾</t>
+          <t>豆干</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>朵</t>
+          <t>和</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>花</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
+        <is>
+          <t>枝</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>棉花糖</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>共</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>要</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>多少</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>元</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
         <is>
           <t>?</t>
         </is>
@@ -461,116 +491,181 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>發生地</t>
+          <t>虛詞</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>數量</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>單位</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>物品</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>連接詞</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>數量</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>單位</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>物品</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>虛詞</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>虛詞</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>單位</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>物品</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>樹上</t>
+          <t>小明</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>原有</t>
+          <t>賣</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>豆干</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>朵</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>花</t>
+          <t>包</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>元</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>發生地</t>
+          <t>主事者</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>=</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>物品</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>數量</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>單位</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>物品</t>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>數量</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>單位</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>掉</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>到</t>
+          <t>枝</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>地上</t>
+          <t>棉花糖</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>比</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>朵</t>
+          <t>豆干</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
+        <is>
+          <t>少</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>元</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>。</t>
         </is>
@@ -579,25 +674,40 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>數量</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>虛詞</t>
+          <t>單位</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>發生地</t>
+          <t>物品</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>物品</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>小</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>數量</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>單位</t>
         </is>

--- a/proj2.xlsx
+++ b/proj2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,65 +424,35 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>買</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>箱</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>包</t>
+          <t>飲料</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>豆干</t>
+          <t>賣</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>和</t>
+          <t>幾</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>元</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
-        <is>
-          <t>枝</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>棉花糖</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>共</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>要</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>多少</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>元</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
         <is>
           <t>?</t>
         </is>
@@ -491,60 +461,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>數量</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>單位</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>物品</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>虛詞</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>數量</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>單位</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>物品</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>連接詞</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
-        <is>
-          <t>數量</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>單位</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>物品</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>虛詞</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>虛詞</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
         <is>
           <t>單位</t>
         </is>
@@ -553,35 +493,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>小明</t>
+          <t>凡凡</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>賣</t>
+          <t>有</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>豆干</t>
+          <t>295</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>包</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
         <is>
           <t>元</t>
         </is>
@@ -595,30 +520,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>=</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>物品</t>
+          <t>數量</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
-        <is>
-          <t>數量</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>單位</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>數量</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
         <is>
           <t>單位</t>
         </is>
@@ -627,87 +537,86 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>想</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>買</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>枝</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>棉花糖</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>比</t>
+          <t>箱</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>豆干</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>少</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>元</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>。</t>
+          <t>飲料</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>虛詞</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>數量</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>單位</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>物品</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>物品</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>小</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>不夠</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>元</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>數量</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>單位</t>
         </is>

--- a/proj2.xlsx
+++ b/proj2.xlsx
@@ -424,32 +424,32 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>現在</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>箱</t>
+          <t>池塘裡</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>飲料</t>
+          <t>共有</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>賣</t>
+          <t>幾</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>幾</t>
+          <t>隻</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>元</t>
+          <t>青蛙</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -461,39 +461,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>數量</t>
+          <t>時間點</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>發生地</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>虛詞</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>單位</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>物品</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>虛詞</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>單位</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>凡凡</t>
+          <t>池塘裡</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -503,19 +503,24 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>元</t>
+          <t>隻</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>青蛙</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>主事者</t>
+          <t>發生地</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,47 +536,52 @@
       <c r="D4" t="inlineStr">
         <is>
           <t>單位</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>物品</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>想</t>
+          <t>跳走</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>買</t>
+          <t>了</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>箱</t>
+          <t>隻</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>飲料</t>
+          <t>後</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>虛詞</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>數量</t>
@@ -584,39 +594,54 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>物品</t>
+          <t>時間點</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>不夠</t>
+          <t>又</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>放進</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>元</t>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>隻</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>。</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>虛詞</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>+</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>數量</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>單位</t>
         </is>

--- a/proj2.xlsx
+++ b/proj2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,35 +424,30 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>現在</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>池塘裡</t>
+          <t>輛</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>共有</t>
+          <t>腳踏車</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>幾</t>
+          <t>多少</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>隻</t>
+          <t>元</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
-        <is>
-          <t>青蛙</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
         <is>
           <t>?</t>
         </is>
@@ -461,189 +456,362 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>時間點</t>
+          <t>數量</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>發生地</t>
+          <t>單位</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>物品</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>=</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>虛詞</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>單位</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>物品</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>池塘裡</t>
+          <t>你</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>身上</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>有</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>隻</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>青蛙</t>
+          <t>元</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>發生地</t>
+          <t>主事者</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>特點</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>=</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>數量</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>單位</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>物品</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>跳走</t>
+          <t>父親</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>了</t>
+          <t>再</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>給</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>隻</t>
+          <t>你</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>後</t>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>元</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>主事者</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>虛詞</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>虛詞</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>接受者</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>數量</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>單位</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>時間點</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>又</t>
+          <t>母親</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>放進</t>
+          <t>再</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>給</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>隻</t>
+          <t>你</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>。</t>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>元</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>主事者</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>虛詞</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>接受者</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>數量</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>單位</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>你</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>借給</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>妹妹</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>元</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>主事者</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>接受者</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>數量</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>單位</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>你</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>身上</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>的</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>錢</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>正好可以</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>買</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>輛</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>腳踏車</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>。</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>主事者</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>特點</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>虛詞</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>物品</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>數量</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>單位</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>物品</t>
         </is>
       </c>
     </row>

--- a/proj2.xlsx
+++ b/proj2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,86 +424,101 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>請問</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>輛</t>
+          <t>還</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>腳踏車</t>
+          <t>剩下</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>多少</t>
+          <t>幾</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>元</t>
+          <t>顆</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>水餃</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>？</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>數量</t>
+          <t>虛詞</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>虛詞</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>虛詞</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>單位</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>物品</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>單位</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>你</t>
+          <t>媽媽</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>身上</t>
+          <t>煮</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>有</t>
+          <t>了</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>元</t>
+          <t>顆</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>水餃</t>
         </is>
       </c>
     </row>
@@ -515,12 +530,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>特點</t>
+          <t>+</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>=</t>
+          <t>虛詞</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -531,38 +546,43 @@
       <c r="E4" t="inlineStr">
         <is>
           <t>單位</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>物品</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>父親</t>
+          <t>弟弟</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>再</t>
+          <t>吃</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>給</t>
+          <t>了</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>你</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>顆</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>元</t>
+          <t>。</t>
         </is>
       </c>
     </row>
@@ -574,244 +594,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>虛詞</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>接受者</t>
+          <t>數量</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>數量</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
           <t>單位</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>母親</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>再</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>給</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>你</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>元</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>主事者</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>虛詞</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>接受者</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>數量</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>單位</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>你</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>借給</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>妹妹</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>元</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>主事者</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>接受者</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>數量</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>單位</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>你</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>身上</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>的</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>錢</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>正好可以</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>買</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>輛</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>腳踏車</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>。</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>主事者</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>特點</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>虛詞</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>物品</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>數量</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>單位</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>物品</t>
         </is>
       </c>
     </row>

--- a/proj2.xlsx
+++ b/proj2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,35 +424,25 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>請問</t>
+          <t>共</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>還</t>
+          <t>要</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>剩下</t>
+          <t>多少</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>幾</t>
+          <t>元</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
-        <is>
-          <t>顆</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>水餃</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
         <is>
           <t>？</t>
         </is>
@@ -461,126 +451,126 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>虛詞</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>虛詞</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>虛詞</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
           <t>單位</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>物品</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>媽媽</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>煮</t>
+          <t>片</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>了</t>
+          <t>餅乾</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>賣</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>顆</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>水餃</t>
+          <t>元</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>主事者</t>
+          <t>數量</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>單位</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>虛詞</t>
+          <t>物品</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>數量</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>單位</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>物品</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>弟弟</t>
+          <t>宥云</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>吃</t>
+          <t>和</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>了</t>
+          <t>宥勳</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>各</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>顆</t>
+          <t>買</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>片</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>。</t>
         </is>
@@ -594,20 +584,30 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>連接詞</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>主事者</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>特點</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>+</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>虛詞</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>數量</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>單位</t>
         </is>

--- a/proj2.xlsx
+++ b/proj2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,35 +424,65 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>請問</t>
+          <t>排在</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>還</t>
+          <t>他</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>剩下</t>
+          <t>前面</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>的</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>第</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>個</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>人</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>第</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
           <t>幾</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>顆</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>水餃</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>個</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
         <is>
           <t>？</t>
         </is>
@@ -461,64 +491,99 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>主事者</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>虛詞</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>虛詞</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>數量</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>單位</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>物品</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>虛詞</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>虛詞</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>單位</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>物品</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>媽媽</t>
+          <t>小明</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>煮</t>
+          <t>排隊</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>了</t>
+          <t>排在</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>第</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>顆</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>水餃</t>
+          <t>個</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>。</t>
         </is>
       </c>
     </row>
@@ -530,84 +595,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>特點</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>虛詞</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>數量</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>單位</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
-        <is>
-          <t>物品</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>弟弟</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>吃</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>了</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>顆</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>。</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>主事者</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>虛詞</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>數量</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
         <is>
           <t>單位</t>
         </is>

--- a/proj2.xlsx
+++ b/proj2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,86 +424,56 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>排在</t>
+          <t>現在</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>他</t>
+          <t>池塘裡</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>前面</t>
+          <t>共有</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>的</t>
+          <t>幾</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>第</t>
+          <t>隻</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>青蛙</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>個</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>人</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>第</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>幾</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>個</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>？</t>
+          <t>?</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>時間點</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>發生地</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>=</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>主事者</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>虛詞</t>
@@ -511,109 +481,167 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>虛詞</t>
+          <t>單位</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>數量</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>單位</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
           <t>物品</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>虛詞</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>虛詞</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>單位</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>小明</t>
+          <t>池塘裡</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>排隊</t>
+          <t>有</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>排在</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>第</t>
+          <t>隻</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>個</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>。</t>
+          <t>青蛙</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>主事者</t>
+          <t>發生地</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>特點</t>
+          <t>=</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>=</t>
+          <t>數量</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>單位</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>物品</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>跳走</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>了</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>隻</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>後</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>虛詞</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>數量</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>單位</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>時間點</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>又</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>放進</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>隻</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>。</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>虛詞</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>數量</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>單位</t>
         </is>

--- a/proj2.xlsx
+++ b/proj2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,190 +424,224 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>共</t>
+          <t>現在</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>要</t>
+          <t>池塘裡</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>多少</t>
+          <t>共有</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>元</t>
+          <t>幾</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>？</t>
+          <t>隻</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>青蛙</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>?</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>時間點</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>發生地</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>=</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>虛詞</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>虛詞</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>單位</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>物品</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>池塘裡</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>片</t>
+          <t>有</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>餅乾</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>賣</t>
+          <t>隻</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>元</t>
+          <t>青蛙</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>發生地</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>數量</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>單位</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>物品</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>數量</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>單位</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>宥云</t>
+          <t>跳走</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>和</t>
+          <t>了</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宥勳</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>各</t>
+          <t>隻</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>買</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>片</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>。</t>
+          <t>後</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>主事者</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>連接詞</t>
+          <t>虛詞</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>主事者</t>
+          <t>數量</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>特點</t>
+          <t>單位</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>時間點</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>又</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>放進</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>隻</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>。</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>虛詞</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>+</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>數量</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>單位</t>
         </is>
